--- a/src/analysis_examples/circadb/results_lomb/cosinor_10589929_cmtm6_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10589929_cmtm6_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2424709690766279, 0.3641624674073537]</t>
+          <t>[0.2429079200274542, 0.3637255164565274]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.027048446289314e-09</v>
+        <v>9.038201298494641e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027048446289314e-09</v>
+        <v>9.038201298494641e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.157263359880925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.3585265529036938, -0.9560001668581553]</t>
+          <t>[-1.3711055024676169, -0.9434212172942322]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.770450949351471e-11</v>
+        <v>2.354514361257998e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>7.770450949351471e-11</v>
+        <v>2.354514361257998e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.4181453916192768</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3850138138739426, 0.45127696936461104]</t>
+          <t>[0.3849748901038387, 0.451315893134715]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.313593593593691</v>
       </c>
       <c r="X2" t="n">
-        <v>3.563403403403484</v>
+        <v>3.516516516516596</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.063783783783897</v>
+        <v>5.110670670670785</v>
       </c>
     </row>
   </sheetData>
